--- a/biology/Médecine/Giacomo_Rizzolatti/Giacomo_Rizzolatti.xlsx
+++ b/biology/Médecine/Giacomo_Rizzolatti/Giacomo_Rizzolatti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giacomo Rizzolatti (né le 28 avril 1937 à Kiev, en Ukraine) est un médecin et biologiste de nationalité italienne. Il est professeur de physiologie à l'université de Parme, en Italie. Il est à l'origine de nombreuses découvertes en neuroscience intégrative. Il est élu associé étranger de l'Académie des sciences française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1961 : docteur en médecine, université de Padoue (Italie)
 1964 : spécialisation en neurologie, université de Padoue
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Découvertes majeures
-On doit à Giacomo Rizzolatti des observations très innovantes sur l’activité cérébrale chez le singe, montrant comment, chez cet animal, l’image mentale d’un mouvement à exécuter pourrait se construire par imitation de l’expérimentateur – ce qui fait repenser la notion d'empathie due aux neurones miroirs.
+          <t>Découvertes majeures</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On doit à Giacomo Rizzolatti des observations très innovantes sur l’activité cérébrale chez le singe, montrant comment, chez cet animal, l’image mentale d’un mouvement à exécuter pourrait se construire par imitation de l’expérimentateur – ce qui fait repenser la notion d'empathie due aux neurones miroirs.
 </t>
         </is>
       </c>
@@ -581,7 +600,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>From Monkey Brain to Human Brain, avec Stanislas Dehaene, Jean-René Duhamel, Marc D. Hauser
 Les Neurones miroirs, avec Corrado Sinigaglia, traduit de l'italien par Marilène Raiola, décembre 2007, édition Odile Jacob, collection sciences</t>
@@ -612,7 +633,9 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Giacomo Rizzolatti est membre de diverses académies ou sociétés savantes :
 1989 : membre de l'Academia Europaea
@@ -646,13 +669,15 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1982 : prix Golgi de physiologie, Académie des Lyncéens
 1999 : George Miller Award, Cognitive Neuroscience Society (États-Unis)
 2000 : prix Feltrinelli de médecine, Académie des Lyncéens
 2005 : prix Herlitzka de physiologie, Accademia delle Scienze di Torino (Italie)
-2011 prix Prince des Asturies (Technique et recherches scientifiques)[1]</t>
+2011 prix Prince des Asturies (Technique et recherches scientifiques)</t>
         </is>
       </c>
     </row>
